--- a/mbs-perturbation/nano/elm/nearmiss/nano_elm_rbf_linf_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/elm/nearmiss/nano_elm_rbf_linf_nearmiss_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7129186602870813</v>
+        <v>0.6426592797783932</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6964285714285714</v>
+        <v>0.4778393351800554</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6090225563909775</v>
+        <v>0.5969529085872576</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5647058823529413</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6641414141414143</v>
+        <v>0.5220588235294117</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7571428571428572</v>
+        <v>0.7266666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2499088630667578</v>
+        <v>0.2263777089783282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3734480793791138</v>
+        <v>0.3366713286713287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6317403356877043</v>
+        <v>0.5608432458856119</v>
       </c>
     </row>
   </sheetData>
